--- a/VerveStacks_SAU/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_SAU/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_SAU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9FAD2C-F76E-4235-BCE8-0B0E26EBF195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6220C399-4E8A-46F1-8596-BFCC06041EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -363,10 +363,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3aH3,S1aH3,S1aH2,S2aH3,S2aH2,S3aH2</t>
-  </si>
-  <si>
-    <t>S1aH4,S3aH1,S2aH1,S1aH1,S3aH4,S2aH4</t>
+    <t>S3aH3,S1aH2,S2aH3,S2aH2,S3aH2,S1aH3</t>
+  </si>
+  <si>
+    <t>S2aH1,S1aH4,S2aH4,S3aH1,S1aH1,S3aH4</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -926,7 +926,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH4,S3aH1,S2aH1,S1aH1,S3aH4,S2aH4</v>
+        <v>S2aH1,S1aH4,S2aH4,S3aH1,S1aH1,S3aH4</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -958,7 +958,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3aH3,S1aH3,S1aH2,S2aH3,S2aH2,S3aH2</v>
+        <v>S3aH3,S1aH2,S2aH3,S2aH2,S3aH2,S1aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1571,7 +1571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7BA611-035A-4898-BDAD-F160DF3276EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93050387-0A9B-4A7A-86A0-9AD0C189FAA2}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1653,7 +1653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8983640-93D6-485D-9462-B93DAD4E5731}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FA3157-9883-4747-955E-010456388E2D}">
   <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2012,7 +2012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0753B7C7-86B7-433B-B5CF-C4478AD5B8CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB693B2-2950-451D-9F80-8428B31BD7E7}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
